--- a/Solubility Chart.xlsx
+++ b/Solubility Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Data\Coding\AI Sol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Data\Coding\AI-Solubility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD120B9-9DE8-4EA4-A4C8-AD2B0152884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7229FA8-3FDF-4436-BAF5-B35DEDE17E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19215" yWindow="5925" windowWidth="19185" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -986,12 +986,12 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="22" width="3.42578125" customWidth="1"/>
     <col min="23" max="23" width="9.140625" customWidth="1"/>
   </cols>

--- a/Solubility Chart.xlsx
+++ b/Solubility Chart.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Data\Coding\AI-Solubility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23EF245-68EE-48C8-A27A-E4E10768FBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE61A1-FDBA-428F-97A1-99B139D34FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Labels" sheetId="1" r:id="rId1"/>
     <sheet name="Values" sheetId="3" r:id="rId2"/>
-    <sheet name="Kd" sheetId="2" r:id="rId3"/>
-    <sheet name="Note" sheetId="4" r:id="rId4"/>
+    <sheet name="Values log" sheetId="6" r:id="rId3"/>
+    <sheet name="Kd" sheetId="2" r:id="rId4"/>
+    <sheet name="Note" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="53">
   <si>
     <t>Mg</t>
   </si>
@@ -400,6 +401,9 @@
   <si>
     <t>Н - Растворимость &lt; 0,1</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -640,12 +644,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -761,6 +765,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -797,6 +836,952 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.36300415573053368"/>
+                  <c:y val="-2.5726888305628463E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Values log'!$B$20:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>6.2633982625916236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>-17.465169298924931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Values log'!$D$20:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3774-4979-AFD9-6DA5817BE08B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="562153247"/>
+        <c:axId val="475518511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="562153247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475518511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475518511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562153247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE20A022-8FE9-3094-7203-683B0FBDC821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1068,7 +2053,7 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="22" width="3.42578125" customWidth="1"/>
@@ -2299,19 +3284,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:V18">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"Н"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"М"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>"Р"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2323,14 +3308,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE6AE0B-4850-4BD5-8EB0-2B06260136E3}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="22" width="6.7109375" customWidth="1"/>
-    <col min="23" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -2433,11 +3418,12 @@
         <v>0.7</v>
       </c>
       <c r="K2" s="14">
-        <f>2.262*10^-8</f>
-        <v>2.262E-8</v>
+        <f>1.262*10^-7</f>
+        <v>1.2620000000000001E-7</v>
       </c>
       <c r="L2" s="14">
-        <v>0</v>
+        <f>2.262*10^-7</f>
+        <v>2.262E-7</v>
       </c>
       <c r="M2" s="14">
         <f>5.255*10^-5</f>
@@ -2447,21 +3433,24 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="O2" s="14">
-        <v>0</v>
+        <f>3.221*10^-3</f>
+        <v>3.2210000000000003E-3</v>
       </c>
       <c r="P2" s="14">
         <f>3.221*10^-4</f>
         <v>3.2210000000000002E-4</v>
       </c>
       <c r="Q2" s="14">
-        <v>0</v>
+        <f>3.671*10^-4</f>
+        <v>3.6709999999999998E-4</v>
       </c>
       <c r="R2" s="14">
         <f>1.615*10^-4</f>
         <v>1.615E-4</v>
       </c>
       <c r="S2" s="14">
-        <v>0</v>
+        <f>1.615*10^-5</f>
+        <v>1.6150000000000003E-5</v>
       </c>
       <c r="T2" s="14">
         <f>1.722*10^-6</f>
@@ -2790,10 +3779,12 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="I7" s="17">
-        <v>0</v>
+        <f>5.365*10^-4</f>
+        <v>5.3650000000000008E-4</v>
       </c>
       <c r="J7" s="17">
-        <v>0</v>
+        <f>1.143*10^-4</f>
+        <v>1.1430000000000001E-4</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>30</v>
@@ -2802,13 +3793,16 @@
         <v>30</v>
       </c>
       <c r="M7" s="17">
-        <v>0</v>
+        <f>2.255*10^-5</f>
+        <v>2.2549999999999999E-5</v>
       </c>
       <c r="N7" s="17">
-        <v>0</v>
+        <f>4.463*10^-3</f>
+        <v>4.463E-3</v>
       </c>
       <c r="O7" s="17">
-        <v>0</v>
+        <f>1.221*10^-3</f>
+        <v>1.2210000000000001E-3</v>
       </c>
       <c r="P7" s="17">
         <v>4.7000000000000002E-3</v>
@@ -2817,21 +3811,24 @@
         <v>1E-4</v>
       </c>
       <c r="R7" s="17">
-        <f>2.6*10^-11</f>
-        <v>2.6000000000000001E-11</v>
+        <f>2.6*10^-8</f>
+        <v>2.6000000000000001E-8</v>
       </c>
       <c r="S7" s="17">
-        <v>0</v>
+        <f>4.615*10^-5</f>
+        <v>4.6150000000000004E-5</v>
       </c>
       <c r="T7" s="17">
-        <v>0</v>
+        <f>3.722*10^-6</f>
+        <v>3.7219999999999997E-6</v>
       </c>
       <c r="U7" s="17">
-        <f>6.21*10^-16</f>
-        <v>6.2099999999999993E-16</v>
+        <f>6.21*10^-6</f>
+        <v>6.2099999999999998E-6</v>
       </c>
       <c r="V7" s="18">
-        <v>0</v>
+        <f>1.262*10^-6</f>
+        <v>1.2619999999999999E-6</v>
       </c>
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
@@ -2880,10 +3877,12 @@
         <v>0.25</v>
       </c>
       <c r="N8" s="17">
-        <v>0</v>
+        <f>7.346*10^-4</f>
+        <v>7.3460000000000007E-4</v>
       </c>
       <c r="O8" s="17">
-        <v>0</v>
+        <f>4.139*10^-3</f>
+        <v>4.1390000000000003E-3</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>31</v>
@@ -2892,7 +3891,8 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="R8" s="17">
-        <v>0</v>
+        <f>3.651*10^-4</f>
+        <v>3.6509999999999998E-4</v>
       </c>
       <c r="S8" s="17" t="s">
         <v>31</v>
@@ -2901,10 +3901,12 @@
         <v>31</v>
       </c>
       <c r="U8" s="17">
-        <v>0</v>
+        <f>3.582*10^-7</f>
+        <v>3.5819999999999996E-7</v>
       </c>
       <c r="V8" s="18">
-        <v>0</v>
+        <f>7.262*10^-5</f>
+        <v>7.2620000000000006E-5</v>
       </c>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
@@ -3159,40 +4161,52 @@
         <v>0.26</v>
       </c>
       <c r="K12" s="17">
-        <v>0</v>
+        <f>7.262*10^-8</f>
+        <v>7.2619999999999998E-8</v>
       </c>
       <c r="L12" s="17">
-        <v>0</v>
+        <f>4.262*10^-7</f>
+        <v>4.2619999999999994E-7</v>
       </c>
       <c r="M12" s="17">
-        <v>0</v>
+        <f>7.255*10^-5</f>
+        <v>7.2550000000000002E-5</v>
       </c>
       <c r="N12" s="17">
-        <v>0</v>
+        <f>9.376*10^-4</f>
+        <v>9.3760000000000002E-4</v>
       </c>
       <c r="O12" s="17">
-        <v>0</v>
+        <f>7.874*10^-4</f>
+        <v>7.8740000000000006E-4</v>
       </c>
       <c r="P12" s="17">
-        <v>0</v>
+        <f>6.221*10^-4</f>
+        <v>6.221E-4</v>
       </c>
       <c r="Q12" s="17">
-        <v>0</v>
+        <f>2.171*10^-4</f>
+        <v>2.1709999999999999E-4</v>
       </c>
       <c r="R12" s="17">
-        <v>0</v>
+        <f>4.21*10^-4</f>
+        <v>4.2100000000000004E-4</v>
       </c>
       <c r="S12" s="17">
-        <v>0</v>
+        <f>1.124*10^-5</f>
+        <v>1.1240000000000002E-5</v>
       </c>
       <c r="T12" s="17">
-        <v>0</v>
+        <f>6.722*10^-6</f>
+        <v>6.7220000000000002E-6</v>
       </c>
       <c r="U12" s="17">
-        <v>0</v>
+        <f>2.21*10^-6</f>
+        <v>2.21E-6</v>
       </c>
       <c r="V12" s="18">
-        <v>0</v>
+        <f>1.262*10^-6</f>
+        <v>1.2619999999999999E-6</v>
       </c>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
@@ -3457,26 +4471,30 @@
         <v>31</v>
       </c>
       <c r="M16" s="17">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="N16" s="17">
-        <v>0</v>
+        <f>1.643*10^-4</f>
+        <v>1.6430000000000001E-4</v>
       </c>
       <c r="O16" s="17">
-        <v>0</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="P16" s="17">
-        <v>0</v>
+        <f>2.147*10^-5</f>
+        <v>2.1469999999999999E-5</v>
       </c>
       <c r="Q16" s="17">
-        <v>0</v>
+        <f>2.432*10^-5</f>
+        <v>2.4320000000000001E-5</v>
       </c>
       <c r="R16" s="17">
         <f>1.71*10^-5</f>
         <v>1.7100000000000002E-5</v>
       </c>
       <c r="S16" s="17">
-        <v>0</v>
+        <f>3.346*10^-5</f>
+        <v>3.3460000000000002E-5</v>
       </c>
       <c r="T16" s="17">
         <v>3.4070000000000003E-2</v>
@@ -3635,22 +4653,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:V18">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:Q2 R2:V18 B3:Q18">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="between">
       <formula>0.1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3659,6 +4677,1676 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCC1B2A-EF0A-BD4E-82BD-57AB096AD532}">
+  <dimension ref="A1:Y22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="22" width="6.7109375" customWidth="1"/>
+    <col min="23" max="25" width="4.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="22"/>
+    </row>
+    <row r="2" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14">
+        <f>LN(Values!C2)</f>
+        <v>2.5494451709255714</v>
+      </c>
+      <c r="D2" s="14">
+        <f>LN(Values!D2)</f>
+        <v>4.7184988712950942</v>
+      </c>
+      <c r="E2" s="14">
+        <f>LN(Values!E2)</f>
+        <v>4.7791234931115296</v>
+      </c>
+      <c r="F2" s="14">
+        <f>LN(Values!F2)</f>
+        <v>4.498697941477575</v>
+      </c>
+      <c r="G2" s="14">
+        <f>LN(Values!G2)</f>
+        <v>1.358409157630355</v>
+      </c>
+      <c r="H2" s="14">
+        <f>LN(Values!H2)</f>
+        <v>-1.7544636844843582</v>
+      </c>
+      <c r="I2" s="14">
+        <f>LN(Values!I2)</f>
+        <v>-6.9456648520553568</v>
+      </c>
+      <c r="J2" s="14">
+        <f>LN(Values!J2)</f>
+        <v>-0.35667494393873245</v>
+      </c>
+      <c r="K2" s="14">
+        <f>LN(Values!K2)</f>
+        <v>-15.885397886839298</v>
+      </c>
+      <c r="L2" s="14">
+        <f>LN(Values!L2)</f>
+        <v>-15.301846273264392</v>
+      </c>
+      <c r="M2" s="14">
+        <f>LN(Values!M2)</f>
+        <v>-9.8537454606413135</v>
+      </c>
+      <c r="N2" s="14">
+        <f>LN(Values!N2)</f>
+        <v>-4.3428059215206005</v>
+      </c>
+      <c r="O2" s="14">
+        <f>LN(Values!O2)</f>
+        <v>-5.7380634086330753</v>
+      </c>
+      <c r="P2" s="14">
+        <f>LN(Values!P2)</f>
+        <v>-8.0406485016271212</v>
+      </c>
+      <c r="Q2" s="14">
+        <f>LN(Values!Q2)</f>
+        <v>-7.9098762674614855</v>
+      </c>
+      <c r="R2" s="14">
+        <f>LN(Values!R2)</f>
+        <v>-8.7310054153015635</v>
+      </c>
+      <c r="S2" s="14">
+        <f>LN(Values!S2)</f>
+        <v>-11.033590508295609</v>
+      </c>
+      <c r="T2" s="14">
+        <f>LN(Values!T2)</f>
+        <v>-13.272024151958735</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+    </row>
+    <row r="3" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="16">
+        <f>LN(Values!B3)</f>
+        <v>4.2831726831211903</v>
+      </c>
+      <c r="C3" s="17">
+        <f>LN(Values!C3)</f>
+        <v>-2.0635681925235456</v>
+      </c>
+      <c r="D3" s="17">
+        <f>LN(Values!D3)</f>
+        <v>4.5528237056158822</v>
+      </c>
+      <c r="E3" s="17">
+        <f>LN(Values!E3)</f>
+        <v>1.4011829736136412</v>
+      </c>
+      <c r="F3" s="17">
+        <f>LN(Values!F3)</f>
+        <v>4.39197696552705</v>
+      </c>
+      <c r="G3" s="17">
+        <f>LN(Values!G3)</f>
+        <v>-1.8325814637483102</v>
+      </c>
+      <c r="H3" s="17">
+        <f>LN(Values!H3)</f>
+        <v>-4.1351665567423561</v>
+      </c>
+      <c r="I3" s="17">
+        <f>LN(Values!I3)</f>
+        <v>-4.9164621240790058</v>
+      </c>
+      <c r="J3" s="17">
+        <f>LN(Values!J3)</f>
+        <v>-9.0280188151822287</v>
+      </c>
+      <c r="K3" s="17">
+        <f>LN(Values!K3)</f>
+        <v>-0.40047756659712525</v>
+      </c>
+      <c r="L3" s="17">
+        <f>LN(Values!L3)</f>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="M3" s="17">
+        <f>LN(Values!M3)</f>
+        <v>-2.3968957724652871</v>
+      </c>
+      <c r="N3" s="17">
+        <f>LN(Values!N3)</f>
+        <v>0.94000725849147115</v>
+      </c>
+      <c r="O3" s="17">
+        <f>LN(Values!O3)</f>
+        <v>0.30748469974796072</v>
+      </c>
+      <c r="P3" s="17">
+        <f>LN(Values!P3)</f>
+        <v>-4.0821994520255166E-2</v>
+      </c>
+      <c r="Q3" s="17">
+        <f>LN(Values!Q3)</f>
+        <v>0.47000362924573563</v>
+      </c>
+      <c r="R3" s="17">
+        <f>LN(Values!R3)</f>
+        <v>-2.7015712350045007</v>
+      </c>
+      <c r="S3" s="17">
+        <f>LN(Values!S3)</f>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="T3" s="17">
+        <f>LN(Values!T3)</f>
+        <v>-2.5902671654458267</v>
+      </c>
+      <c r="U3" s="17">
+        <f>LN(Values!U3)</f>
+        <v>5.1474944768134527</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+    </row>
+    <row r="4" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="16">
+        <f>LN(Values!B4)</f>
+        <v>4.2484952420493594</v>
+      </c>
+      <c r="C4" s="17">
+        <f>LN(Values!C4)</f>
+        <v>4.42484663185681</v>
+      </c>
+      <c r="D4" s="17">
+        <f>LN(Values!D4)</f>
+        <v>3.5322256440685598</v>
+      </c>
+      <c r="E4" s="17">
+        <f>LN(Values!E4)</f>
+        <v>3.5804587051595158</v>
+      </c>
+      <c r="F4" s="17">
+        <f>LN(Values!F4)</f>
+        <v>3.6163087612791012</v>
+      </c>
+      <c r="G4" s="17">
+        <f>LN(Values!G4)</f>
+        <v>3.5779478934066544</v>
+      </c>
+      <c r="H4" s="17">
+        <f>LN(Values!H4)</f>
+        <v>4.3107991253855138</v>
+      </c>
+      <c r="I4" s="17">
+        <f>LN(Values!I4)</f>
+        <v>4.0000338827508592</v>
+      </c>
+      <c r="J4" s="17">
+        <f>LN(Values!J4)</f>
+        <v>3.9684033388642534</v>
+      </c>
+      <c r="K4" s="17">
+        <f>LN(Values!K4)</f>
+        <v>3.824284091120139</v>
+      </c>
+      <c r="L4" s="17">
+        <f>LN(Values!L4)</f>
+        <v>4.0690267542378109</v>
+      </c>
+      <c r="M4" s="17">
+        <f>LN(Values!M4)</f>
+        <v>4.1351665567423561</v>
+      </c>
+      <c r="N4" s="17">
+        <f>LN(Values!N4)</f>
+        <v>4.2017030805426003</v>
+      </c>
+      <c r="O4" s="17">
+        <f>LN(Values!O4)</f>
+        <v>3.9684033388642534</v>
+      </c>
+      <c r="P4" s="17">
+        <f>LN(Values!P4)</f>
+        <v>4.3027128279541564</v>
+      </c>
+      <c r="Q4" s="17">
+        <f>LN(Values!Q4)</f>
+        <v>5.978885764901122</v>
+      </c>
+      <c r="R4" s="17">
+        <f>LN(Values!R4)</f>
+        <v>7.6961041136128394E-2</v>
+      </c>
+      <c r="S4" s="17">
+        <f>LN(Values!S4)</f>
+        <v>4.4296256134731609</v>
+      </c>
+      <c r="T4" s="17">
+        <f>LN(Values!T4)</f>
+        <v>4.290459441148391</v>
+      </c>
+      <c r="U4" s="17">
+        <f>LN(Values!U4)</f>
+        <v>-8.5564539053695405</v>
+      </c>
+      <c r="V4" s="18">
+        <f>LN(Values!V4)</f>
+        <v>1.8825138324965192</v>
+      </c>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+    </row>
+    <row r="5" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="16">
+        <f>LN(Values!B5)</f>
+        <v>5.2626901889048856</v>
+      </c>
+      <c r="C5" s="17">
+        <f>LN(Values!C5)</f>
+        <v>5.0751738152338266</v>
+      </c>
+      <c r="D5" s="17">
+        <f>LN(Values!D5)</f>
+        <v>4.1789920362823851</v>
+      </c>
+      <c r="E5" s="17">
+        <f>LN(Values!E5)</f>
+        <v>4.5086592856072478</v>
+      </c>
+      <c r="F5" s="17">
+        <f>LN(Values!F5)</f>
+        <v>4.3359826961724748</v>
+      </c>
+      <c r="G5" s="17">
+        <f>LN(Values!G5)</f>
+        <v>4.6443908991413725</v>
+      </c>
+      <c r="H5" s="17">
+        <f>LN(Values!H5)</f>
+        <v>4.962844630259907</v>
+      </c>
+      <c r="I5" s="17">
+        <f>LN(Values!I5)</f>
+        <v>4.6151205168412597</v>
+      </c>
+      <c r="J5" s="17">
+        <f>LN(Values!J5)</f>
+        <v>4.6249728132842707</v>
+      </c>
+      <c r="K5" s="17">
+        <f>LN(Values!K5)</f>
+        <v>4.6539603501575231</v>
+      </c>
+      <c r="L5" s="17">
+        <f>LN(Values!L5)</f>
+        <v>4.7095302013123339</v>
+      </c>
+      <c r="M5" s="17">
+        <f>LN(Values!M5)</f>
+        <v>4.7621739347977563</v>
+      </c>
+      <c r="N5" s="17">
+        <f>LN(Values!N5)</f>
+        <v>4.8751973232011512</v>
+      </c>
+      <c r="O5" s="17">
+        <f>LN(Values!O5)</f>
+        <v>4.7184988712950942</v>
+      </c>
+      <c r="P5" s="17">
+        <f>LN(Values!P5)</f>
+        <v>4.990432586778736</v>
+      </c>
+      <c r="Q5" s="17">
+        <f>LN(Values!Q5)</f>
+        <v>6.1003189520200642</v>
+      </c>
+      <c r="R5" s="17">
+        <f>LN(Values!R5)</f>
+        <v>-2.7371196796132015E-2</v>
+      </c>
+      <c r="S5" s="17">
+        <f>LN(Values!S5)</f>
+        <v>4.4426512564903167</v>
+      </c>
+      <c r="T5" s="17">
+        <f>LN(Values!T5)</f>
+        <v>4.836281906951478</v>
+      </c>
+      <c r="U5" s="17">
+        <f>LN(Values!U5)</f>
+        <v>-11.229251413915986</v>
+      </c>
+      <c r="V5" s="18">
+        <f>LN(Values!V5)</f>
+        <v>-0.57981849525294205</v>
+      </c>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+    </row>
+    <row r="6" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="16">
+        <f>LN(Values!B6)</f>
+        <v>5.5012582105447274</v>
+      </c>
+      <c r="C6" s="17">
+        <f>LN(Values!C6)</f>
+        <v>5.1059454739005803</v>
+      </c>
+      <c r="D6" s="17">
+        <f>LN(Values!D6)</f>
+        <v>4.9698132995760007</v>
+      </c>
+      <c r="E6" s="17">
+        <f>LN(Values!E6)</f>
+        <v>5.181783550292085</v>
+      </c>
+      <c r="F6" s="17">
+        <f>LN(Values!F6)</f>
+        <v>5.1474944768134527</v>
+      </c>
+      <c r="G6" s="17">
+        <f>LN(Values!G6)</f>
+        <v>5.4071717714601188</v>
+      </c>
+      <c r="H6" s="17">
+        <f>LN(Values!H6)</f>
+        <v>4.1896547420264252</v>
+      </c>
+      <c r="I6" s="17">
+        <f>LN(Values!I6)</f>
+        <v>4.9416424226093039</v>
+      </c>
+      <c r="J6" s="17">
+        <f>LN(Values!J6)</f>
+        <v>5.181783550292085</v>
+      </c>
+      <c r="K6" s="17">
+        <f>LN(Values!K6)</f>
+        <v>5.1984970312658261</v>
+      </c>
+      <c r="L6" s="17">
+        <f>LN(Values!L6)</f>
+        <v>5.2364419628299492</v>
+      </c>
+      <c r="M6" s="17">
+        <f>LN(Values!M6)</f>
+        <v>5.0937502008067623</v>
+      </c>
+      <c r="N6" s="17">
+        <f>LN(Values!N6)</f>
+        <v>4.9972122737641147</v>
+      </c>
+      <c r="O6" s="17">
+        <f>LN(Values!O6)</f>
+        <v>5.3132059790417872</v>
+      </c>
+      <c r="P6" s="17">
+        <f>LN(Values!P6)</f>
+        <v>6.2166061010848646</v>
+      </c>
+      <c r="Q6" s="17">
+        <f>LN(Values!Q6)</f>
+        <v>6.0684255882441107</v>
+      </c>
+      <c r="R6" s="17">
+        <f>LN(Values!R6)</f>
+        <v>-2.5770219386958062</v>
+      </c>
+      <c r="S6" s="17">
+        <f>LN(Values!S6)</f>
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="T6" s="17">
+        <f>LN(Values!T6)</f>
+        <v>-5.4726707536928147</v>
+      </c>
+      <c r="U6" s="17">
+        <f>LN(Values!U6)</f>
+        <v>-3.5065578973199818</v>
+      </c>
+      <c r="V6" s="18">
+        <f>LN(Values!V6)</f>
+        <v>-5.1159958097540823</v>
+      </c>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+    </row>
+    <row r="7" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="16">
+        <f>LN(Values!B7)</f>
+        <v>1.1939224684724346</v>
+      </c>
+      <c r="C7" s="17">
+        <f>LN(Values!C7)</f>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="D7" s="17">
+        <f>LN(Values!D7)</f>
+        <v>3.912023005428146</v>
+      </c>
+      <c r="E7" s="17">
+        <f>LN(Values!E7)</f>
+        <v>2.5176964726109912</v>
+      </c>
+      <c r="F7" s="17">
+        <f>LN(Values!F7)</f>
+        <v>4.8528112089026889</v>
+      </c>
+      <c r="G7" s="17">
+        <f>LN(Values!G7)</f>
+        <v>2.0617866064411152</v>
+      </c>
+      <c r="H7" s="17">
+        <f>LN(Values!H7)</f>
+        <v>-1.6144504542576446</v>
+      </c>
+      <c r="I7" s="17">
+        <f>LN(Values!I7)</f>
+        <v>-7.5304439958935205</v>
+      </c>
+      <c r="J7" s="17">
+        <f>LN(Values!J7)</f>
+        <v>-9.0766839871635092</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="17">
+        <f>LN(Values!M7)</f>
+        <v>-10.699775492015586</v>
+      </c>
+      <c r="N7" s="17">
+        <f>LN(Values!N7)</f>
+        <v>-5.4119340933350042</v>
+      </c>
+      <c r="O7" s="17">
+        <f>LN(Values!O7)</f>
+        <v>-6.7080850838535691</v>
+      </c>
+      <c r="P7" s="17">
+        <f>LN(Values!P7)</f>
+        <v>-5.3601927702661243</v>
+      </c>
+      <c r="Q7" s="17">
+        <f>LN(Values!Q7)</f>
+        <v>-9.2103403719761818</v>
+      </c>
+      <c r="R7" s="17">
+        <f>LN(Values!R7)</f>
+        <v>-17.465169298924931</v>
+      </c>
+      <c r="S7" s="17">
+        <f>LN(Values!S7)</f>
+        <v>-9.9836135970154132</v>
+      </c>
+      <c r="T7" s="17">
+        <f>LN(Values!T7)</f>
+        <v>-12.501249399744216</v>
+      </c>
+      <c r="U7" s="17">
+        <f>LN(Values!U7)</f>
+        <v>-11.989349662018887</v>
+      </c>
+      <c r="V7" s="18">
+        <f>LN(Values!V7)</f>
+        <v>-13.582812793845253</v>
+      </c>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+    </row>
+    <row r="8" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="16">
+        <f>LN(Values!B8)</f>
+        <v>2.3878449369448691</v>
+      </c>
+      <c r="C8" s="17">
+        <f>LN(Values!C8)</f>
+        <v>3.3826939100975957</v>
+      </c>
+      <c r="D8" s="17">
+        <f>LN(Values!D8)</f>
+        <v>4.6596583712721609</v>
+      </c>
+      <c r="E8" s="17">
+        <f>LN(Values!E8)</f>
+        <v>3.2958368660043291</v>
+      </c>
+      <c r="F8" s="17">
+        <f>LN(Values!F8)</f>
+        <v>4.1075897889721213</v>
+      </c>
+      <c r="G8" s="17">
+        <f>LN(Values!G8)</f>
+        <v>-2.2072749131897207</v>
+      </c>
+      <c r="H8" s="17">
+        <f>LN(Values!H8)</f>
+        <v>-0.84397007029452897</v>
+      </c>
+      <c r="I8" s="17">
+        <f>LN(Values!I8)</f>
+        <v>-0.65392646740666394</v>
+      </c>
+      <c r="J8" s="17">
+        <f>LN(Values!J8)</f>
+        <v>-4.3050655935377531</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="17">
+        <f>LN(Values!M8)</f>
+        <v>-1.3862943611198906</v>
+      </c>
+      <c r="N8" s="17">
+        <f>LN(Values!N8)</f>
+        <v>-7.2161844245787075</v>
+      </c>
+      <c r="O8" s="17">
+        <f>LN(Values!O8)</f>
+        <v>-5.4873010662155419</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="17">
+        <f>LN(Values!Q8)</f>
+        <v>-1.9449106487222299</v>
+      </c>
+      <c r="R8" s="17">
+        <f>LN(Values!R8)</f>
+        <v>-7.9153392693026827</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="17">
+        <f>LN(Values!U8)</f>
+        <v>-14.8421743473198</v>
+      </c>
+      <c r="V8" s="18">
+        <f>LN(Values!V8)</f>
+        <v>-9.5302701919780848</v>
+      </c>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+    </row>
+    <row r="9" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="16">
+        <f>LN(Values!B9)</f>
+        <v>3.5817674054173034</v>
+      </c>
+      <c r="C9" s="17">
+        <f>LN(Values!C9)</f>
+        <v>3.5524868292083815</v>
+      </c>
+      <c r="D9" s="17">
+        <f>LN(Values!D9)</f>
+        <v>4.7874917427820458</v>
+      </c>
+      <c r="E9" s="17">
+        <f>LN(Values!E9)</f>
+        <v>3.906004933102583</v>
+      </c>
+      <c r="F9" s="17">
+        <f>LN(Values!F9)</f>
+        <v>4.3228072750139104</v>
+      </c>
+      <c r="G9" s="17">
+        <f>LN(Values!G9)</f>
+        <v>-8.3150690073261035</v>
+      </c>
+      <c r="H9" s="17">
+        <f>LN(Values!H9)</f>
+        <v>-1.3664917338237108</v>
+      </c>
+      <c r="I9" s="17">
+        <f>LN(Values!I9)</f>
+        <v>3.55820113047182</v>
+      </c>
+      <c r="J9" s="17">
+        <f>LN(Values!J9)</f>
+        <v>-4.3275384493898121</v>
+      </c>
+      <c r="K9" s="17">
+        <f>LN(Values!K9)</f>
+        <v>3.5945687746426951</v>
+      </c>
+      <c r="L9" s="17">
+        <f>LN(Values!L9)</f>
+        <v>3.044522437723423</v>
+      </c>
+      <c r="M9" s="17">
+        <f>LN(Values!M9)</f>
+        <v>3.2425923514855168</v>
+      </c>
+      <c r="N9" s="17">
+        <f>LN(Values!N9)</f>
+        <v>4.1743872698956368</v>
+      </c>
+      <c r="O9" s="17">
+        <f>LN(Values!O9)</f>
+        <v>3.5890591188317256</v>
+      </c>
+      <c r="P9" s="17">
+        <f>LN(Values!P9)</f>
+        <v>4.0253516907351496</v>
+      </c>
+      <c r="Q9" s="17">
+        <f>LN(Values!Q9)</f>
+        <v>4.0552571735140539</v>
+      </c>
+      <c r="R9" s="17">
+        <f>LN(Values!R9)</f>
+        <v>-3.2089254940150327</v>
+      </c>
+      <c r="S9" s="17">
+        <f>LN(Values!S9)</f>
+        <v>3.4965075614664802</v>
+      </c>
+      <c r="T9" s="17">
+        <f>LN(Values!T9)</f>
+        <v>3.4531571205928664</v>
+      </c>
+      <c r="U9" s="17">
+        <f>LN(Values!U9)</f>
+        <v>-0.18632957819149348</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+    </row>
+    <row r="10" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="16">
+        <f>LN(Values!B10)</f>
+        <v>4.8283137373023015</v>
+      </c>
+      <c r="C10" s="17">
+        <f>LN(Values!C10)</f>
+        <v>3.9550824948885932</v>
+      </c>
+      <c r="D10" s="17">
+        <f>LN(Values!D10)</f>
+        <v>3.4531571205928664</v>
+      </c>
+      <c r="E10" s="17">
+        <f>LN(Values!E10)</f>
+        <v>4.4727809979423458</v>
+      </c>
+      <c r="F10" s="17">
+        <f>LN(Values!F10)</f>
+        <v>5.2574953720277815</v>
+      </c>
+      <c r="G10" s="17">
+        <f>LN(Values!G10)</f>
+        <v>2.1994443340745322</v>
+      </c>
+      <c r="H10" s="17">
+        <f>LN(Values!H10)</f>
+        <v>4.7974420736352137</v>
+      </c>
+      <c r="I10" s="17">
+        <f>LN(Values!I10)</f>
+        <v>4.2413267525707461</v>
+      </c>
+      <c r="J10" s="17">
+        <f>LN(Values!J10)</f>
+        <v>4.2598590006996737</v>
+      </c>
+      <c r="K10" s="17">
+        <f>LN(Values!K10)</f>
+        <v>4.3027128279541564</v>
+      </c>
+      <c r="L10" s="17">
+        <f>LN(Values!L10)</f>
+        <v>4.8675344504555822</v>
+      </c>
+      <c r="M10" s="17">
+        <f>LN(Values!M10)</f>
+        <v>4.9126548857360524</v>
+      </c>
+      <c r="N10" s="17">
+        <f>LN(Values!N10)</f>
+        <v>4.5454201815823172</v>
+      </c>
+      <c r="O10" s="17">
+        <f>LN(Values!O10)</f>
+        <v>4.5788262106484892</v>
+      </c>
+      <c r="P10" s="17">
+        <f>LN(Values!P10)</f>
+        <v>4.9344739331306915</v>
+      </c>
+      <c r="Q10" s="17">
+        <f>LN(Values!Q10)</f>
+        <v>4.8598124043616719</v>
+      </c>
+      <c r="R10" s="17">
+        <f>LN(Values!R10)</f>
+        <v>3.9945242269398897</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="17">
+        <f>LN(Values!T10)</f>
+        <v>4.8283137373023015</v>
+      </c>
+      <c r="U10" s="17">
+        <f>LN(Values!U10)</f>
+        <v>4.7706846244656651</v>
+      </c>
+      <c r="V10" s="18">
+        <f>LN(Values!V10)</f>
+        <v>2.4692612590371414E-2</v>
+      </c>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+    </row>
+    <row r="11" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="16">
+        <f>LN(Values!B11)</f>
+        <v>4.4308167988433134</v>
+      </c>
+      <c r="C11" s="17">
+        <f>LN(Values!C11)</f>
+        <v>4.5726469942825316</v>
+      </c>
+      <c r="D11" s="17">
+        <f>LN(Values!D11)</f>
+        <v>5.7235851019523807</v>
+      </c>
+      <c r="E11" s="17">
+        <f>LN(Values!E11)</f>
+        <v>4.39197696552705</v>
+      </c>
+      <c r="F11" s="17">
+        <f>LN(Values!F11)</f>
+        <v>4.773223770984341</v>
+      </c>
+      <c r="G11" s="17">
+        <f>LN(Values!G11)</f>
+        <v>4.2794400458987809</v>
+      </c>
+      <c r="H11" s="17">
+        <f>LN(Values!H11)</f>
+        <v>4.4367515343631281</v>
+      </c>
+      <c r="I11" s="17">
+        <f>LN(Values!I11)</f>
+        <v>4.2626798770413155</v>
+      </c>
+      <c r="J11" s="17">
+        <f>LN(Values!J11)</f>
+        <v>3.7376696182833684</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="17">
+        <f>LN(Values!N11)</f>
+        <v>0.95551144502743635</v>
+      </c>
+      <c r="O11" s="17">
+        <f>LN(Values!O11)</f>
+        <v>-0.916290731874155</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="17">
+        <f>LN(Values!U11)</f>
+        <v>-0.96758402626170559</v>
+      </c>
+      <c r="V11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+    </row>
+    <row r="12" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="16">
+        <f>LN(Values!B12)</f>
+        <v>2.341805806147327</v>
+      </c>
+      <c r="C12" s="17">
+        <f>LN(Values!C12)</f>
+        <v>-0.94160853985844495</v>
+      </c>
+      <c r="D12" s="17">
+        <f>LN(Values!D12)</f>
+        <v>4.5250441415088067</v>
+      </c>
+      <c r="E12" s="17">
+        <f>LN(Values!E12)</f>
+        <v>2.4932054526026954</v>
+      </c>
+      <c r="F12" s="17">
+        <f>LN(Values!F12)</f>
+        <v>3.0106208860477417</v>
+      </c>
+      <c r="G12" s="17">
+        <f>LN(Values!G12)</f>
+        <v>-8.3644721043985726</v>
+      </c>
+      <c r="H12" s="17">
+        <f>LN(Values!H12)</f>
+        <v>-6.2146080984221914</v>
+      </c>
+      <c r="I12" s="17">
+        <f>LN(Values!I12)</f>
+        <v>-8.2594549953375278</v>
+      </c>
+      <c r="J12" s="17">
+        <f>LN(Values!J12)</f>
+        <v>-1.3470736479666092</v>
+      </c>
+      <c r="K12" s="17">
+        <f>LN(Values!K12)</f>
+        <v>-16.43802547096022</v>
+      </c>
+      <c r="L12" s="17">
+        <f>LN(Values!L12)</f>
+        <v>-14.668357117281895</v>
+      </c>
+      <c r="M12" s="17">
+        <f>LN(Values!M12)</f>
+        <v>-9.5312345786340771</v>
+      </c>
+      <c r="N12" s="17">
+        <f>LN(Values!N12)</f>
+        <v>-6.9721871391415258</v>
+      </c>
+      <c r="O12" s="17">
+        <f>LN(Values!O12)</f>
+        <v>-7.1467741794546367</v>
+      </c>
+      <c r="P12" s="17">
+        <f>LN(Values!P12)</f>
+        <v>-7.3824097064433003</v>
+      </c>
+      <c r="Q12" s="17">
+        <f>LN(Values!Q12)</f>
+        <v>-8.4351524810800278</v>
+      </c>
+      <c r="R12" s="17">
+        <f>LN(Values!R12)</f>
+        <v>-7.7728777242818925</v>
+      </c>
+      <c r="S12" s="17">
+        <f>LN(Values!S12)</f>
+        <v>-11.396031713498729</v>
+      </c>
+      <c r="T12" s="17">
+        <f>LN(Values!T12)</f>
+        <v>-11.91012482866136</v>
+      </c>
+      <c r="U12" s="17">
+        <f>LN(Values!U12)</f>
+        <v>-13.022518042434612</v>
+      </c>
+      <c r="V12" s="18">
+        <f>LN(Values!V12)</f>
+        <v>-13.582812793845253</v>
+      </c>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+    </row>
+    <row r="13" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="16">
+        <f>LN(Values!B13)</f>
+        <v>1.9315214116032138</v>
+      </c>
+      <c r="C13" s="17">
+        <f>LN(Values!C13)</f>
+        <v>0.28517894223366247</v>
+      </c>
+      <c r="D13" s="17">
+        <f>LN(Values!D13)</f>
+        <v>4.7095302013123339</v>
+      </c>
+      <c r="E13" s="17">
+        <f>LN(Values!E13)</f>
+        <v>3.068052935133617</v>
+      </c>
+      <c r="F13" s="17">
+        <f>LN(Values!F13)</f>
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="G13" s="17">
+        <f>LN(Values!G13)</f>
+        <v>-6.0322865416282374</v>
+      </c>
+      <c r="H13" s="17">
+        <f>LN(Values!H13)</f>
+        <v>-7.2644302229208693</v>
+      </c>
+      <c r="I13" s="17">
+        <f>LN(Values!I13)</f>
+        <v>-3.2441936328524905</v>
+      </c>
+      <c r="J13" s="17">
+        <f>LN(Values!J13)</f>
+        <v>-6.812445099177812</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="17">
+        <f>LN(Values!M13)</f>
+        <v>-9.6328499146936046</v>
+      </c>
+      <c r="N13" s="17">
+        <f>LN(Values!N13)</f>
+        <v>-6.944108108447935</v>
+      </c>
+      <c r="O13" s="17">
+        <f>LN(Values!O13)</f>
+        <v>-11.512925464970229</v>
+      </c>
+      <c r="P13" s="17">
+        <f>LN(Values!P13)</f>
+        <v>-9.9283951882423125</v>
+      </c>
+      <c r="Q13" s="17">
+        <f>LN(Values!Q13)</f>
+        <v>-9.9670665341789988</v>
+      </c>
+      <c r="R13" s="17">
+        <f>LN(Values!R13)</f>
+        <v>-9.5293067344677294</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="17">
+        <f>LN(Values!T13)</f>
+        <v>-8.830535010648596</v>
+      </c>
+      <c r="U13" s="17">
+        <f>LN(Values!U13)</f>
+        <v>-5.6581401167775001</v>
+      </c>
+      <c r="V13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+    </row>
+    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="16">
+        <f>LN(Values!B14)</f>
+        <v>5.0689042022202315</v>
+      </c>
+      <c r="C14" s="17">
+        <f>LN(Values!C14)</f>
+        <v>3.708682081410116</v>
+      </c>
+      <c r="D14" s="17">
+        <f>LN(Values!D14)</f>
+        <v>5.5451774444795623</v>
+      </c>
+      <c r="E14" s="17">
+        <f>LN(Values!E14)</f>
+        <v>3.8372994592322094</v>
+      </c>
+      <c r="F14" s="17">
+        <f>LN(Values!F14)</f>
+        <v>4.962844630259907</v>
+      </c>
+      <c r="G14" s="17">
+        <f>LN(Values!G14)</f>
+        <v>4.2766661190160553</v>
+      </c>
+      <c r="H14" s="17">
+        <f>LN(Values!H14)</f>
+        <v>3.5467396869528134</v>
+      </c>
+      <c r="I14" s="17">
+        <f>LN(Values!I14)</f>
+        <v>3.9778107459661491</v>
+      </c>
+      <c r="J14" s="17">
+        <f>LN(Values!J14)</f>
+        <v>3.6936182084611096</v>
+      </c>
+      <c r="K14" s="17">
+        <f>LN(Values!K14)</f>
+        <v>4.3174881135363101</v>
+      </c>
+      <c r="L14" s="17">
+        <f>LN(Values!L14)</f>
+        <v>4.2121275978784842</v>
+      </c>
+      <c r="M14" s="17">
+        <f>LN(Values!M14)</f>
+        <v>4.4659081186545837</v>
+      </c>
+      <c r="N14" s="17">
+        <f>LN(Values!N14)</f>
+        <v>2.8332133440562162</v>
+      </c>
+      <c r="O14" s="17">
+        <f>LN(Values!O14)</f>
+        <v>3.8501476017100584</v>
+      </c>
+      <c r="P14" s="17">
+        <f>LN(Values!P14)</f>
+        <v>4.2484952420493594</v>
+      </c>
+      <c r="Q14" s="17">
+        <f>LN(Values!Q14)</f>
+        <v>3.7612001156935624</v>
+      </c>
+      <c r="R14" s="17">
+        <f>LN(Values!R14)</f>
+        <v>3.7912103852113983</v>
+      </c>
+      <c r="S14" s="17">
+        <f>LN(Values!S14)</f>
+        <v>2.5336968139574321</v>
+      </c>
+      <c r="T14" s="17">
+        <f>LN(Values!T14)</f>
+        <v>1.9740810260220096</v>
+      </c>
+      <c r="U14" s="17">
+        <f>LN(Values!U14)</f>
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="V14" s="18">
+        <f>LN(Values!V14)</f>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+    </row>
+    <row r="15" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="16">
+        <f>LN(Values!B15)</f>
+        <v>4.1588830833596715</v>
+      </c>
+      <c r="C15" s="17">
+        <f>LN(Values!C15)</f>
+        <v>4.2682978693455391</v>
+      </c>
+      <c r="D15" s="17">
+        <f>LN(Values!D15)</f>
+        <v>1.8468787684491346</v>
+      </c>
+      <c r="E15" s="17">
+        <f>LN(Values!E15)</f>
+        <v>4.499809670330265</v>
+      </c>
+      <c r="F15" s="17">
+        <f>LN(Values!F15)</f>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="G15" s="17">
+        <f>LN(Values!G15)</f>
+        <v>4.1588830833596715</v>
+      </c>
+      <c r="H15" s="17">
+        <f>LN(Values!H15)</f>
+        <v>5.8230458954830189</v>
+      </c>
+      <c r="I15" s="17">
+        <f>LN(Values!I15)</f>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="J15" s="17">
+        <f>LN(Values!J15)</f>
+        <v>2.7472709142554912</v>
+      </c>
+      <c r="K15" s="17">
+        <f>LN(Values!K15)</f>
+        <v>2.5572273113676265</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="17">
+        <f>LN(Values!Q15)</f>
+        <v>3.505557396986398</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="17">
+        <f>LN(Values!U15)</f>
+        <v>-0.10536051565782628</v>
+      </c>
+      <c r="V15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+    </row>
+    <row r="16" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="16">
+        <f>LN(Values!B16)</f>
+        <v>4.1896547420264252</v>
+      </c>
+      <c r="C16" s="17">
+        <f>LN(Values!C16)</f>
+        <v>4.7095302013123339</v>
+      </c>
+      <c r="D16" s="17">
+        <f>LN(Values!D16)</f>
+        <v>4.1415461637063951</v>
+      </c>
+      <c r="E16" s="17">
+        <f>LN(Values!E16)</f>
+        <v>4.4367515343631281</v>
+      </c>
+      <c r="F16" s="17">
+        <f>LN(Values!F16)</f>
+        <v>3.5263605246161616</v>
+      </c>
+      <c r="G16" s="17">
+        <f>LN(Values!G16)</f>
+        <v>-8.1896896247777846</v>
+      </c>
+      <c r="H16" s="17">
+        <f>LN(Values!H16)</f>
+        <v>0.81093021621632877</v>
+      </c>
+      <c r="I16" s="17">
+        <f>LN(Values!I16)</f>
+        <v>4.9199809258281251</v>
+      </c>
+      <c r="J16" s="17">
+        <f>LN(Values!J16)</f>
+        <v>-2.4651040224918206</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="17">
+        <f>LN(Values!M16)</f>
+        <v>-9.2103403719761818</v>
+      </c>
+      <c r="N16" s="17">
+        <f>LN(Values!N16)</f>
+        <v>-8.7138165329210509</v>
+      </c>
+      <c r="O16" s="17">
+        <f>LN(Values!O16)</f>
+        <v>-7.706262975199909</v>
+      </c>
+      <c r="P16" s="17">
+        <f>LN(Values!P16)</f>
+        <v>-10.748853946073584</v>
+      </c>
+      <c r="Q16" s="17">
+        <f>LN(Values!Q16)</f>
+        <v>-10.624211500866307</v>
+      </c>
+      <c r="R16" s="17">
+        <f>LN(Values!R16)</f>
+        <v>-10.97643209445566</v>
+      </c>
+      <c r="S16" s="17">
+        <f>LN(Values!S16)</f>
+        <v>-10.305159862405596</v>
+      </c>
+      <c r="T16" s="17">
+        <f>LN(Values!T16)</f>
+        <v>-3.3793380473092616</v>
+      </c>
+      <c r="U16" s="17">
+        <f>LN(Values!U16)</f>
+        <v>-6.1390369115751175</v>
+      </c>
+      <c r="V16" s="18">
+        <f>LN(Values!V16)</f>
+        <v>-6.0692098957328353</v>
+      </c>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+    </row>
+    <row r="17" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="16">
+        <f>LN(Values!B17)</f>
+        <v>3.6888794541139363</v>
+      </c>
+      <c r="C17" s="17">
+        <f>LN(Values!C17)</f>
+        <v>5.9188938542731462</v>
+      </c>
+      <c r="D17" s="17">
+        <f>LN(Values!D17)</f>
+        <v>1.9878743481543455</v>
+      </c>
+      <c r="E17" s="17">
+        <f>LN(Values!E17)</f>
+        <v>4.5633059818893926</v>
+      </c>
+      <c r="F17" s="17">
+        <f>LN(Values!F17)</f>
+        <v>3.3568971227655755</v>
+      </c>
+      <c r="G17" s="17">
+        <f>LN(Values!G17)</f>
+        <v>3.5234150143864045</v>
+      </c>
+      <c r="H17" s="17">
+        <f>LN(Values!H17)</f>
+        <v>5.3423342519648109</v>
+      </c>
+      <c r="I17" s="17">
+        <f>LN(Values!I17)</f>
+        <v>4.9052747784384296</v>
+      </c>
+      <c r="J17" s="17">
+        <f>LN(Values!J17)</f>
+        <v>5.1647859739235145</v>
+      </c>
+      <c r="K17" s="17">
+        <f>LN(Values!K17)</f>
+        <v>5.2364419628299492</v>
+      </c>
+      <c r="L17" s="17">
+        <f>LN(Values!L17)</f>
+        <v>5.2781146592305168</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="17">
+        <f>LN(Values!N17)</f>
+        <v>4.8903491282217537</v>
+      </c>
+      <c r="O17" s="17">
+        <f>LN(Values!O17)</f>
+        <v>5.1929568508902104</v>
+      </c>
+      <c r="P17" s="17">
+        <f>LN(Values!P17)</f>
+        <v>5.2470240721604862</v>
+      </c>
+      <c r="Q17" s="17">
+        <f>LN(Values!Q17)</f>
+        <v>5.2983173665480363</v>
+      </c>
+      <c r="R17" s="17">
+        <f>LN(Values!R17)</f>
+        <v>4.9698132995760007</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="17">
+        <f>LN(Values!T17)</f>
+        <v>5.4889377261566867</v>
+      </c>
+      <c r="U17" s="17">
+        <f>LN(Values!U17)</f>
+        <v>2.7278528283983898</v>
+      </c>
+      <c r="V17" s="18">
+        <f>LN(Values!V17)</f>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+    </row>
+    <row r="18" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="19">
+        <f>LN(Values!B18)</f>
+        <v>3.0056826044071592</v>
+      </c>
+      <c r="C18" s="20">
+        <f>LN(Values!C18)</f>
+        <v>4.0271358125286509</v>
+      </c>
+      <c r="D18" s="20">
+        <f>LN(Values!D18)</f>
+        <v>0.51879379341516751</v>
+      </c>
+      <c r="E18" s="20">
+        <f>LN(Values!E18)</f>
+        <v>5.3033049080590757</v>
+      </c>
+      <c r="F18" s="20">
+        <f>LN(Values!F18)</f>
+        <v>3.0373539482448106</v>
+      </c>
+      <c r="G18" s="20">
+        <f>LN(Values!G18)</f>
+        <v>5.8171111599632042</v>
+      </c>
+      <c r="H18" s="20">
+        <f>LN(Values!H18)</f>
+        <v>5.2364419628299492</v>
+      </c>
+      <c r="I18" s="20">
+        <f>LN(Values!I18)</f>
+        <v>3.903990833730882</v>
+      </c>
+      <c r="J18" s="20">
+        <f>LN(Values!J18)</f>
+        <v>5.6757258768736758</v>
+      </c>
+      <c r="K18" s="20">
+        <f>LN(Values!K18)</f>
+        <v>4.8903491282217537</v>
+      </c>
+      <c r="L18" s="20">
+        <f>LN(Values!L18)</f>
+        <v>4.8675344504555822</v>
+      </c>
+      <c r="M18" s="20">
+        <f>LN(Values!M18)</f>
+        <v>5.9080829381689313</v>
+      </c>
+      <c r="N18" s="20">
+        <f>LN(Values!N18)</f>
+        <v>4.7004803657924166</v>
+      </c>
+      <c r="O18" s="20">
+        <f>LN(Values!O18)</f>
+        <v>4.6443908991413725</v>
+      </c>
+      <c r="P18" s="20">
+        <f>LN(Values!P18)</f>
+        <v>5.0689042022202315</v>
+      </c>
+      <c r="Q18" s="20">
+        <f>LN(Values!Q18)</f>
+        <v>5.181783550292085</v>
+      </c>
+      <c r="R18" s="20">
+        <f>LN(Values!R18)</f>
+        <v>6.0867747269123065</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="20">
+        <f>LN(Values!T18)</f>
+        <v>4.9836066217083363</v>
+      </c>
+      <c r="U18" s="20">
+        <f>LN(Values!U18)</f>
+        <v>6.2633982625916236</v>
+      </c>
+      <c r="V18" s="21">
+        <f>LN(Values!V18)</f>
+        <v>6.0088131854425946</v>
+      </c>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="28">
+        <f>MAX(B2:V18)</f>
+        <v>6.2633982625916236</v>
+      </c>
+      <c r="C20">
+        <f>20/B20</f>
+        <v>3.1931547638365481</v>
+      </c>
+      <c r="D20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C22" si="0">20/B21</f>
+        <v>-8.6956521739130448</v>
+      </c>
+      <c r="D21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="28">
+        <f>MIN(B2:V18)</f>
+        <v>-17.465169298924931</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-1.145136337225835</v>
+      </c>
+      <c r="D22">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:V18">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:Q2 R2:V18 B3:V18">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+      <formula>-2.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+      <formula>-2.3</formula>
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB99587-C90F-4564-85DB-59BF7EC8D286}">
   <dimension ref="A1:V24"/>
   <sheetViews>
@@ -3666,12 +6354,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="3.42578125" customWidth="1"/>
     <col min="20" max="22" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -4469,39 +7157,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FA8A79-E88E-43DD-A46C-F8BD26131F3C}">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Solubility Chart.xlsx
+++ b/Solubility Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Data\Coding\AI-Solubility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE61A1-FDBA-428F-97A1-99B139D34FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE5025-5E9F-42DE-AB71-E78A8A2B7DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Labels" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,77 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -787,41 +857,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2049,9 +2084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2188,10 +2221,10 @@
         <v>29</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2259,7 +2292,7 @@
         <v>27</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2498,10 +2531,10 @@
         <v>29</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M7" s="24" t="s">
         <v>29</v>
@@ -2569,7 +2602,7 @@
         <v>31</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M8" s="24" t="s">
         <v>28</v>
@@ -2667,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -2726,7 +2759,7 @@
         <v>27</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="T10" s="24" t="s">
         <v>27</v>
@@ -3284,19 +3317,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:V18">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
-      <formula>"-"</formula>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Н"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"М"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Р"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4653,22 +4686,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:V18">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:Q2 R2:V18 B3:Q18">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="between">
       <formula>0.1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4680,7 +4713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCC1B2A-EF0A-BD4E-82BD-57AB096AD532}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -6321,22 +6354,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:V18">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:Q2 R2:V18 B3:V18">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
       <formula>-2.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="between">
       <formula>-2.3</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7120,36 +7153,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B21">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Н"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"М"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"Р"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:V21 D2:D19 A2:B21 C22:V22 B23:V23 C24:V24">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"?"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"Н"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"М"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"Р"</formula>
     </cfRule>
   </conditionalFormatting>
